--- a/Barcode_Project.xlsx
+++ b/Barcode_Project.xlsx
@@ -135,7 +135,7 @@
     <ext cx="1905000" cy="1428750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -145,9 +145,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -165,7 +163,7 @@
     <ext cx="1905000" cy="1428750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 2" descr="Picture"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -175,9 +173,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -195,7 +191,7 @@
     <ext cx="1905000" cy="1428750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 3" descr="Picture"/>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -205,9 +201,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -225,7 +219,7 @@
     <ext cx="1905000" cy="1428750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 4" descr="Picture"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -235,9 +229,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -249,13 +241,13 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 5" descr="Picture"/>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -265,9 +257,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -279,13 +269,13 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 6" descr="Picture"/>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -295,9 +285,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -309,13 +297,13 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 7" descr="Picture"/>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -325,9 +313,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -339,92 +325,87 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="1428750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="1428750"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -444,7 +425,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="1428750"/>
@@ -469,7 +450,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="1428750"/>
@@ -480,6 +461,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -814,10 +820,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="197" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -904,6 +910,30 @@
         </is>
       </c>
     </row>
+    <row r="7" ht="110" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ChromeBook</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>42-76-6a-86-9d-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="110" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bag</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12-f5-b9-ea-8e-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
